--- a/Provid.ai BUG_Report.xlsx
+++ b/Provid.ai BUG_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="211">
   <si>
     <t>Bug_Id</t>
   </si>
@@ -593,6 +593,18 @@
     <t>user should not view the audio bar</t>
   </si>
   <si>
+    <t>New 17/10/2025  (Bugs given BY Aditya)</t>
+  </si>
+  <si>
+    <t>While loading all products, instead of showing No Product Found it should be loading animation.</t>
+  </si>
+  <si>
+    <t>its show the wrong Template Sequence</t>
+  </si>
+  <si>
+    <t>For Some Products Generate button with the table not working you need to Select the product and use Generate button from Navbar.</t>
+  </si>
+  <si>
     <t>https://www.loom.com/share/207e728bcc2341988a724c373659cc13?t=18&amp;sid=eb20fdf6-f51a-4b93-81bf-80eed243f730</t>
   </si>
   <si>
@@ -642,7 +654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -699,6 +711,17 @@
       <sz val="20.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="&quot;gg sans&quot;"/>
     </font>
     <font>
       <u/>
@@ -816,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -873,17 +896,29 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3266,8 +3301,10 @@
     <row r="45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="16"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="14"/>
@@ -3294,8 +3331,8 @@
     <row r="46">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="14"/>
@@ -3320,10 +3357,14 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="5"/>
+      <c r="A47" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="14"/>
@@ -3348,10 +3389,14 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="5"/>
+      <c r="A48" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="22" t="s">
+        <v>195</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="14"/>
@@ -3376,10 +3421,14 @@
       <c r="Z48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="5"/>
+      <c r="A49" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="23" t="s">
+        <v>196</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="14"/>
@@ -3407,7 +3456,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="14"/>
@@ -30144,9 +30193,10 @@
       <c r="Z1004" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C25:D26"/>
     <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C45:D46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
@@ -30202,171 +30252,171 @@
   </cols>
   <sheetData>
     <row r="6">
-      <c r="B6" s="21" t="s">
-        <v>193</v>
+      <c r="B6" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="G14" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="30">
+        <v>49401.0</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="D15" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N15" s="30">
         <v>49401.0</v>
       </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="24" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="24" t="s">
+      <c r="F16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N16" s="30">
         <v>49401.0</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="26">
-        <v>49401.0</v>
-      </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
